--- a/Customer/FTSolutions/FTSolutions.IEC61034.Runner/Report/IEC61034_TestResult_V1.xlsx
+++ b/Customer/FTSolutions/FTSolutions.IEC61034.Runner/Report/IEC61034_TestResult_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevProjects\Source\FTSolutions\TestProduct\IEC61034\Customer\FTSolutions\FTSolutions.IEC61034.Runner\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC416E6-B862-4221-B590-10EF965589BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD1FF0-6CB9-4553-8AEF-C55252A09E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92EF80C5-BA18-46BF-B2D9-2C9CBBEA68F1}"/>
   </bookViews>
@@ -184,15 +184,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max. Standard Absorbance (m²)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time to max (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cable Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max. Standard Absorbance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +741,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1052,7 +1052,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Chamber Temperature</c:v>
+            <c:strRef>
+              <c:f>RawData!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Chamber TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1356,9 +1364,9 @@
             <c:v>Absorbance</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3647,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEA5BA-4328-4FA8-8E38-2F721E6A0B10}">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4072,7 +4080,7 @@
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -4289,7 +4297,7 @@
     <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -4301,7 +4309,7 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
@@ -6124,6 +6132,8 @@
     <mergeCell ref="P32:S32"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="P33:S33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:S34"/>
     <mergeCell ref="H11:S12"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
@@ -6172,8 +6182,6 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:S34"/>
     <mergeCell ref="L27:O27"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:O37"/>
